--- a/Gedai/src/br/com/gedai/archives/Lista_Atividade_Demanda.xlsx
+++ b/Gedai/src/br/com/gedai/archives/Lista_Atividade_Demanda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x178132\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x178132\Desktop\Job\Gedai\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,16 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="Lista de Atividades" sheetId="1" r:id="rId1"/>
+    <sheet name="Lista de Tarefas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista de Atividades'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Lista de Atividades'!$B$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Atividade</t>
   </si>
@@ -30,9 +31,6 @@
     <t>Descrição Atividade</t>
   </si>
   <si>
-    <t>Resposável</t>
-  </si>
-  <si>
     <t>Datas Previstas</t>
   </si>
   <si>
@@ -52,6 +50,27 @@
   </si>
   <si>
     <t>Usuario Inclusão</t>
+  </si>
+  <si>
+    <t>Nome Demanda</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>Tarefa</t>
+  </si>
+  <si>
+    <t>Projeto/Tarefas</t>
+  </si>
+  <si>
+    <t>Quantidade Tarefa</t>
+  </si>
+  <si>
+    <t>Informações Tarefa</t>
+  </si>
+  <si>
+    <t>Data da Tarefa</t>
   </si>
 </sst>
 </file>
@@ -153,9 +172,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,73 +469,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.42578125" customWidth="1"/>
-    <col min="3" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.42578125" customWidth="1"/>
+    <col min="4" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
   <mergeCells count="3">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>